--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForGradationForOne.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForGradationForOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D84932-D67F-4C93-8C1A-D92B24A7C17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC43DEC-C73C-40A8-A6B4-DA04953B1C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -35,16 +35,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
+    <t>Loại tiền</t>
   </si>
   <si>
-    <t>1. Theo doanh số đối tác - loại tiền chi trả</t>
+    <t>2. Theo tỷ trọng Hồ sơ đối tác - loại tiền chi trả</t>
   </si>
   <si>
-    <t>2. Theo tỷ trọng doanh số đối tác - loại tiền chi trả</t>
+    <t>1. Theo Hồ sơ đối tác - loại tiền chi trả</t>
   </si>
   <si>
-    <t>Loại tiền</t>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC - SO SÁNH</t>
   </si>
 </sst>
 </file>
@@ -144,15 +144,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -163,6 +154,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,19 +511,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
+      <c r="A1" s="20" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -545,16 +545,16 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -577,11 +577,11 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>1</v>
+      <c r="A5" s="22" t="s">
+        <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -626,64 +626,64 @@
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="Y21" s="3"/>
     </row>
-    <row r="29" spans="2:29" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="AA29" s="20"/>
-      <c r="AC29" s="21"/>
+    <row r="29" spans="2:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="AA29" s="17"/>
+      <c r="AC29" s="18"/>
     </row>
     <row r="30" spans="2:29" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="AA30" s="22"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="AA30" s="19"/>
       <c r="AC30" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>2</v>
+      <c r="A39" s="22" t="s">
+        <v>1</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -706,10 +706,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
